--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1827,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>448.1698047668653</v>
+        <v>500.2422257897695</v>
       </c>
       <c r="AB2" t="n">
-        <v>613.2056987383847</v>
+        <v>684.4534824550044</v>
       </c>
       <c r="AC2" t="n">
-        <v>554.682207490396</v>
+        <v>619.130202725994</v>
       </c>
       <c r="AD2" t="n">
-        <v>448169.8047668653</v>
+        <v>500242.2257897694</v>
       </c>
       <c r="AE2" t="n">
-        <v>613205.6987383848</v>
+        <v>684453.4824550044</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.081222255054548e-06</v>
+        <v>3.518409484511618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.735243055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>554682.207490396</v>
+        <v>619130.2027259939</v>
       </c>
     </row>
     <row r="3">
@@ -1933,28 +1933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.1118676196772</v>
+        <v>247.2700688873986</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.6937914598157</v>
+        <v>338.3258170371162</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.4731910118209</v>
+        <v>306.0364759024611</v>
       </c>
       <c r="AD3" t="n">
-        <v>216111.8676196772</v>
+        <v>247270.0688873986</v>
       </c>
       <c r="AE3" t="n">
-        <v>295693.7914598157</v>
+        <v>338325.8170371162</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.276214119145131e-06</v>
+        <v>5.538602521713369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.184895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>267473.1910118209</v>
+        <v>306036.4759024611</v>
       </c>
     </row>
     <row r="4">
@@ -2039,28 +2039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.7196198391408</v>
+        <v>218.9630724528828</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.8462654689358</v>
+        <v>299.5949356988855</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.333218378653</v>
+        <v>271.0020155200055</v>
       </c>
       <c r="AD4" t="n">
-        <v>187719.6198391408</v>
+        <v>218963.0724528828</v>
       </c>
       <c r="AE4" t="n">
-        <v>256846.2654689357</v>
+        <v>299594.9356988855</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.467614488032207e-06</v>
+        <v>5.862174341876162e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>232333.218378653</v>
+        <v>271002.0155200055</v>
       </c>
     </row>
   </sheetData>
@@ -2336,28 +2336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.5053131525423</v>
+        <v>354.7823331819622</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.3200444504777</v>
+        <v>485.4288401514465</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.2509033660989</v>
+        <v>439.1001929510479</v>
       </c>
       <c r="AD2" t="n">
-        <v>314505.3131525423</v>
+        <v>354782.3331819622</v>
       </c>
       <c r="AE2" t="n">
-        <v>430320.0444504776</v>
+        <v>485428.8401514465</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.585699937454067e-06</v>
+        <v>4.477891899732553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.10546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>389250.9033660989</v>
+        <v>439100.1929510479</v>
       </c>
     </row>
     <row r="3">
@@ -2442,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.55195873382</v>
+        <v>218.7435484001167</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.3026670959786</v>
+        <v>299.2945732051733</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.9867634293561</v>
+        <v>270.7303192011316</v>
       </c>
       <c r="AD3" t="n">
-        <v>178551.9587338199</v>
+        <v>218743.5484001167</v>
       </c>
       <c r="AE3" t="n">
-        <v>244302.6670959787</v>
+        <v>299294.5732051732</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.506163140320499e-06</v>
+        <v>6.071941797175728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.978732638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>220986.7634293561</v>
+        <v>270730.3192011316</v>
       </c>
     </row>
     <row r="4">
@@ -2548,28 +2548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.0493904116241</v>
+        <v>219.2409800779208</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.9832750626868</v>
+        <v>299.9751811718813</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.6024151269611</v>
+        <v>271.3459708987366</v>
       </c>
       <c r="AD4" t="n">
-        <v>179049.3904116241</v>
+        <v>219240.9800779208</v>
       </c>
       <c r="AE4" t="n">
-        <v>244983.2750626868</v>
+        <v>299975.1811718813</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.507032413019954e-06</v>
+        <v>6.073447195819693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.9765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>221602.4151269611</v>
+        <v>271345.9708987366</v>
       </c>
     </row>
   </sheetData>
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.5070121673363</v>
+        <v>212.8831337636257</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.5046809870418</v>
+        <v>291.2760953562836</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.4558131876572</v>
+        <v>263.477113624133</v>
       </c>
       <c r="AD2" t="n">
-        <v>176507.0121673363</v>
+        <v>212883.1337636257</v>
       </c>
       <c r="AE2" t="n">
-        <v>241504.6809870418</v>
+        <v>291276.0953562836</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.364758738028279e-06</v>
+        <v>6.366847593838679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.950954861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>218455.8131876572</v>
+        <v>263477.1136241331</v>
       </c>
     </row>
   </sheetData>
@@ -3142,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.9487137291224</v>
+        <v>209.3533547200189</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.5820130179177</v>
+        <v>286.4464959459622</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.9531331790972</v>
+        <v>259.1084444031459</v>
       </c>
       <c r="AD2" t="n">
-        <v>180948.7137291224</v>
+        <v>209353.3547200189</v>
       </c>
       <c r="AE2" t="n">
-        <v>247582.0130179177</v>
+        <v>286446.4959459621</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.448161738630917e-06</v>
+        <v>6.281801834018284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.488715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>223953.1331790972</v>
+        <v>259108.4444031459</v>
       </c>
     </row>
     <row r="3">
@@ -3248,28 +3248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.8325700196795</v>
+        <v>207.2372110105759</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.6866118369877</v>
+        <v>283.5510947650321</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.3340650231532</v>
+        <v>256.4893762472018</v>
       </c>
       <c r="AD3" t="n">
-        <v>178832.5700196795</v>
+        <v>207237.2110105759</v>
       </c>
       <c r="AE3" t="n">
-        <v>244686.6118369877</v>
+        <v>283551.0947650321</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.489507098113947e-06</v>
+        <v>6.357124099827013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.412760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>221334.0650231532</v>
+        <v>256489.3762472018</v>
       </c>
     </row>
   </sheetData>
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.6324952294841</v>
+        <v>224.8430950977528</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.4635459681083</v>
+        <v>307.6402420898835</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.7007093003617</v>
+        <v>278.2794891607077</v>
       </c>
       <c r="AD2" t="n">
-        <v>189632.495229484</v>
+        <v>224843.0950977528</v>
       </c>
       <c r="AE2" t="n">
-        <v>259463.5459681083</v>
+        <v>307640.2420898835</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.159566070808899e-06</v>
+        <v>6.191731485119795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.688802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>234700.7093003617</v>
+        <v>278279.4891607077</v>
       </c>
     </row>
   </sheetData>
@@ -3842,28 +3842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.7076899112945</v>
+        <v>381.3252645253382</v>
       </c>
       <c r="AB2" t="n">
-        <v>466.171292299081</v>
+        <v>521.7460498069402</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.6805584375738</v>
+        <v>471.9513390885451</v>
       </c>
       <c r="AD2" t="n">
-        <v>340707.6899112945</v>
+        <v>381325.2645253383</v>
       </c>
       <c r="AE2" t="n">
-        <v>466171.292299081</v>
+        <v>521746.0498069401</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.45249253223275e-06</v>
+        <v>4.21946731272382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.470052083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>421680.5584375738</v>
+        <v>471951.3390885451</v>
       </c>
     </row>
     <row r="3">
@@ -3948,28 +3948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.3108251924102</v>
+        <v>221.8429694433308</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.0774698972181</v>
+        <v>303.5353378133027</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.4013043492155</v>
+        <v>274.566351187013</v>
       </c>
       <c r="AD3" t="n">
-        <v>181310.8251924102</v>
+        <v>221842.9694433308</v>
       </c>
       <c r="AE3" t="n">
-        <v>248077.4698972181</v>
+        <v>303535.3378133027</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.488355235527686e-06</v>
+        <v>6.001649627074661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.954861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>224401.3043492155</v>
+        <v>274566.351187013</v>
       </c>
     </row>
     <row r="4">
@@ -4054,28 +4054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.5350159766718</v>
+        <v>212.0621354467197</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.384217618844</v>
+        <v>290.1527692392039</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.6787764988127</v>
+        <v>262.4609961750691</v>
       </c>
       <c r="AD4" t="n">
-        <v>181535.0159766719</v>
+        <v>212062.1354467197</v>
       </c>
       <c r="AE4" t="n">
-        <v>248384.217618844</v>
+        <v>290152.7692392039</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.496587003452594e-06</v>
+        <v>6.015812229092232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.939670138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>224678.7764988127</v>
+        <v>262460.9961750691</v>
       </c>
     </row>
   </sheetData>
@@ -4351,28 +4351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.5285785278748</v>
+        <v>237.9132291135389</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.4767801888852</v>
+        <v>325.5233760638905</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.8993471323554</v>
+        <v>294.4558819273773</v>
       </c>
       <c r="AD2" t="n">
-        <v>203528.5785278748</v>
+        <v>237913.2291135389</v>
       </c>
       <c r="AE2" t="n">
-        <v>278476.7801888852</v>
+        <v>325523.3760638905</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.983834930157355e-06</v>
+        <v>5.981575654819772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.331163194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>251899.3471323554</v>
+        <v>294455.8819273773</v>
       </c>
     </row>
   </sheetData>
@@ -4648,28 +4648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.5541398315627</v>
+        <v>263.9969845730615</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.9273219157327</v>
+        <v>361.2123210178386</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.2984687365156</v>
+        <v>326.7387240645719</v>
       </c>
       <c r="AD2" t="n">
-        <v>234554.1398315627</v>
+        <v>263996.9845730615</v>
       </c>
       <c r="AE2" t="n">
-        <v>320927.3219157327</v>
+        <v>361212.3210178385</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.051577197793522e-06</v>
+        <v>5.404569970533614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.076822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>290298.4687365156</v>
+        <v>326738.7240645719</v>
       </c>
     </row>
     <row r="3">
@@ -4754,28 +4754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.7501087233569</v>
+        <v>212.1076126102808</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.0467611209664</v>
+        <v>290.214993100699</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.1826491824874</v>
+        <v>262.5172814785548</v>
       </c>
       <c r="AD3" t="n">
-        <v>182750.1087233569</v>
+        <v>212107.6126102808</v>
       </c>
       <c r="AE3" t="n">
-        <v>250046.7611209664</v>
+        <v>290214.993100699</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.520782692252887e-06</v>
+        <v>6.235567766426847e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.1328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>226182.6491824874</v>
+        <v>262517.2814785548</v>
       </c>
     </row>
   </sheetData>
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.7688862520593</v>
+        <v>320.7776530273619</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.1603768191242</v>
+        <v>438.9021365833113</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.4966496279814</v>
+        <v>397.013932670817</v>
       </c>
       <c r="AD2" t="n">
-        <v>280768.8862520593</v>
+        <v>320777.6530273618</v>
       </c>
       <c r="AE2" t="n">
-        <v>384160.3768191242</v>
+        <v>438902.1365833114</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.722096215174823e-06</v>
+        <v>4.747098107989197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>347496.6496279814</v>
+        <v>397013.932670817</v>
       </c>
     </row>
     <row r="3">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.1583129083913</v>
+        <v>217.0796366438472</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.0782605631705</v>
+        <v>297.0179357336406</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.6385107831922</v>
+        <v>268.6709608146006</v>
       </c>
       <c r="AD3" t="n">
-        <v>187158.3129083913</v>
+        <v>217079.6366438472</v>
       </c>
       <c r="AE3" t="n">
-        <v>256078.2605631705</v>
+        <v>297017.9357336406</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.511190157054967e-06</v>
+        <v>6.123209039572999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.026475694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>231638.5107831922</v>
+        <v>268670.9608146006</v>
       </c>
     </row>
   </sheetData>
@@ -5454,28 +5454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.3151365862336</v>
+        <v>463.8316710048881</v>
       </c>
       <c r="AB2" t="n">
-        <v>564.1477599373219</v>
+        <v>634.634955078021</v>
       </c>
       <c r="AC2" t="n">
-        <v>510.306289515257</v>
+        <v>574.0662856811277</v>
       </c>
       <c r="AD2" t="n">
-        <v>412315.1365862336</v>
+        <v>463831.6710048881</v>
       </c>
       <c r="AE2" t="n">
-        <v>564147.7599373219</v>
+        <v>634634.955078021</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.1999715798689e-06</v>
+        <v>3.739805879627431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>510306.2895152571</v>
+        <v>574066.2856811277</v>
       </c>
     </row>
     <row r="3">
@@ -5560,28 +5560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.9168843630983</v>
+        <v>236.8439089886254</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.7445655972534</v>
+        <v>324.0602850939101</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.8552596877157</v>
+        <v>293.1324263061102</v>
       </c>
       <c r="AD3" t="n">
-        <v>205916.8843630983</v>
+        <v>236843.9089886254</v>
       </c>
       <c r="AE3" t="n">
-        <v>281744.5655972534</v>
+        <v>324060.2850939101</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.364894929270732e-06</v>
+        <v>5.72009836670941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.069878472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>254855.2596877157</v>
+        <v>293132.4263061102</v>
       </c>
     </row>
     <row r="4">
@@ -5666,28 +5666,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.8788406618669</v>
+        <v>216.8911166334145</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.327630189145</v>
+        <v>296.7599943384508</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.0549581150379</v>
+        <v>268.4376369841445</v>
       </c>
       <c r="AD4" t="n">
-        <v>185878.8406618669</v>
+        <v>216891.1166334145</v>
       </c>
       <c r="AE4" t="n">
-        <v>254327.630189145</v>
+        <v>296759.9943384508</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.476229904415535e-06</v>
+        <v>5.909360445576594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.874565972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>230054.9581150379</v>
+        <v>268437.6369841446</v>
       </c>
     </row>
   </sheetData>
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.9056400519874</v>
+        <v>218.8154199900206</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.8372747645564</v>
+        <v>299.3929110852305</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.0387699450085</v>
+        <v>270.8192718519343</v>
       </c>
       <c r="AD2" t="n">
-        <v>189905.6400519874</v>
+        <v>218815.4199900206</v>
       </c>
       <c r="AE2" t="n">
-        <v>259837.2747645564</v>
+        <v>299392.9110852305</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.368251311033003e-06</v>
+        <v>6.073754176588962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.560329861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>235038.7699450084</v>
+        <v>270819.2718519343</v>
       </c>
     </row>
     <row r="3">
@@ -6069,28 +6069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.6562725615788</v>
+        <v>208.3954602990198</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.8136379940053</v>
+        <v>285.1358625398326</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.3535293855365</v>
+        <v>257.9228960098113</v>
       </c>
       <c r="AD3" t="n">
-        <v>179656.2725615788</v>
+        <v>208395.4602990198</v>
       </c>
       <c r="AE3" t="n">
-        <v>245813.6379940053</v>
+        <v>285135.8625398326</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.510996258075753e-06</v>
+        <v>6.331157095263097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.293402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>222353.5293855365</v>
+        <v>257922.8960098113</v>
       </c>
     </row>
   </sheetData>
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.2085670538045</v>
+        <v>213.1301081971374</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.0963352162386</v>
+        <v>291.6140166719571</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.0864393641023</v>
+        <v>263.7827842037144</v>
       </c>
       <c r="AD2" t="n">
-        <v>176208.5670538045</v>
+        <v>213130.1081971374</v>
       </c>
       <c r="AE2" t="n">
-        <v>241096.3352162386</v>
+        <v>291614.0166719571</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.425239969422115e-06</v>
+        <v>6.390402929859911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>218086.4393641023</v>
+        <v>263782.7842037144</v>
       </c>
     </row>
   </sheetData>
@@ -10540,28 +10540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.0638067853803</v>
+        <v>213.964364233409</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.9489531163511</v>
+        <v>292.7554825855623</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.521544257613</v>
+        <v>264.8153102125829</v>
       </c>
       <c r="AD2" t="n">
-        <v>187063.8067853803</v>
+        <v>213964.3642334091</v>
       </c>
       <c r="AE2" t="n">
-        <v>255948.9531163511</v>
+        <v>292755.4825855623</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.2799446710637e-06</v>
+        <v>6.307455234637138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.259114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>231521.544257613</v>
+        <v>264815.3102125829</v>
       </c>
     </row>
   </sheetData>
@@ -10837,28 +10837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.0053497024554</v>
+        <v>265.8450912523791</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.4940018813196</v>
+        <v>363.7409821091933</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.2426445088905</v>
+        <v>329.0260532903658</v>
       </c>
       <c r="AD2" t="n">
-        <v>224005.3497024554</v>
+        <v>265845.0912523791</v>
       </c>
       <c r="AE2" t="n">
-        <v>306494.0018813196</v>
+        <v>363740.9821091933</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.693864074247512e-06</v>
+        <v>5.55636221138639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.485677083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>277242.6445088905</v>
+        <v>329026.0532903658</v>
       </c>
     </row>
   </sheetData>
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.5008845119153</v>
+        <v>296.9711961920759</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.3240703263033</v>
+        <v>406.3290920745217</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.6987555444046</v>
+        <v>367.549613813391</v>
       </c>
       <c r="AD2" t="n">
-        <v>257500.8845119153</v>
+        <v>296971.1961920758</v>
       </c>
       <c r="AE2" t="n">
-        <v>352324.0703263034</v>
+        <v>406329.0920745217</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.875714558702813e-06</v>
+        <v>5.052517039097874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.430555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>318698.7555444046</v>
+        <v>367549.613813391</v>
       </c>
     </row>
     <row r="3">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.7481840689916</v>
+        <v>214.3936106335327</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.7806159577253</v>
+        <v>293.3427964472259</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.6555887506163</v>
+        <v>265.3465716635897</v>
       </c>
       <c r="AD3" t="n">
-        <v>184748.1840689916</v>
+        <v>214393.6106335327</v>
       </c>
       <c r="AE3" t="n">
-        <v>252780.6159577253</v>
+        <v>293342.7964472258</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.520539534060187e-06</v>
+        <v>6.185449083889769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.069878472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>228655.5887506163</v>
+        <v>265346.5716635897</v>
       </c>
     </row>
   </sheetData>
@@ -11537,28 +11537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.327238004554</v>
+        <v>421.5314310120601</v>
       </c>
       <c r="AB2" t="n">
-        <v>506.6980647225166</v>
+        <v>576.7579005649519</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.3395125805991</v>
+        <v>521.7129360198296</v>
       </c>
       <c r="AD2" t="n">
-        <v>370327.238004554</v>
+        <v>421531.4310120601</v>
       </c>
       <c r="AE2" t="n">
-        <v>506698.0647225166</v>
+        <v>576757.9005649519</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.321326741293489e-06</v>
+        <v>3.969210033399027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.871527777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>458339.5125805992</v>
+        <v>521712.9360198296</v>
       </c>
     </row>
     <row r="3">
@@ -11643,28 +11643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.4272268425461</v>
+        <v>227.2881722230646</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.0779563546408</v>
+        <v>310.9857044819231</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.7336742043884</v>
+        <v>281.305665317438</v>
       </c>
       <c r="AD3" t="n">
-        <v>186427.2268425461</v>
+        <v>227288.1722230646</v>
       </c>
       <c r="AE3" t="n">
-        <v>255077.9563546408</v>
+        <v>310985.7044819231</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.44564524472106e-06</v>
+        <v>5.891669377512823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.9765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>230733.6742043885</v>
+        <v>281305.665317438</v>
       </c>
     </row>
     <row r="4">
@@ -11749,28 +11749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.5824892856423</v>
+        <v>214.3562096028885</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.1856609283232</v>
+        <v>293.2916227070814</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.2128539906865</v>
+        <v>265.3002818733818</v>
       </c>
       <c r="AD4" t="n">
-        <v>183582.4892856423</v>
+        <v>214356.2096028885</v>
       </c>
       <c r="AE4" t="n">
-        <v>251185.6609283233</v>
+        <v>293291.6227070814</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.49081536690468e-06</v>
+        <v>5.96890525258019e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>227212.8539906865</v>
+        <v>265300.2818733818</v>
       </c>
     </row>
   </sheetData>
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.9171427874833</v>
+        <v>323.7119603455708</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.2078103150986</v>
+        <v>442.9169853085875</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.3528894710059</v>
+        <v>400.6456098686283</v>
       </c>
       <c r="AD2" t="n">
-        <v>266917.1427874833</v>
+        <v>323711.9603455708</v>
       </c>
       <c r="AE2" t="n">
-        <v>365207.8103150986</v>
+        <v>442916.9853085876</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.213360339461956e-06</v>
+        <v>4.744250660127012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.95529513888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>330352.8894710059</v>
+        <v>400645.6098686283</v>
       </c>
     </row>
   </sheetData>
@@ -12343,28 +12343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.1264010716693</v>
+        <v>205.3464738514787</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.3521562114597</v>
+        <v>280.9641047705202</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.2224065660958</v>
+        <v>254.1492849469021</v>
       </c>
       <c r="AD2" t="n">
-        <v>177126.4010716693</v>
+        <v>205346.4738514787</v>
       </c>
       <c r="AE2" t="n">
-        <v>242352.1562114597</v>
+        <v>280964.1047705202</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.461954586807975e-06</v>
+        <v>6.378417765787631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.551649305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>219222.4065660958</v>
+        <v>254149.2849469021</v>
       </c>
     </row>
     <row r="3">
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.8345909493394</v>
+        <v>206.0546637291489</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.3211328452199</v>
+        <v>281.9330814042804</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.0989054298975</v>
+        <v>255.0257838107037</v>
       </c>
       <c r="AD3" t="n">
-        <v>177834.5909493394</v>
+        <v>206054.6637291489</v>
       </c>
       <c r="AE3" t="n">
-        <v>243321.1328452199</v>
+        <v>281933.0814042804</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.463626776193301e-06</v>
+        <v>6.38149866191601e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.547309027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>220098.9054298975</v>
+        <v>255025.7838107037</v>
       </c>
     </row>
   </sheetData>
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.101140641737</v>
+        <v>244.8708567507744</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.9966731665002</v>
+        <v>335.0431091460193</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.0833064643888</v>
+        <v>303.06706504518</v>
       </c>
       <c r="AD2" t="n">
-        <v>206101.140641737</v>
+        <v>244870.8567507744</v>
       </c>
       <c r="AE2" t="n">
-        <v>281996.6731665002</v>
+        <v>335043.1091460193</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.21438567002506e-06</v>
+        <v>5.742265419160469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.792534722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>255083.3064643889</v>
+        <v>303067.06504518</v>
       </c>
     </row>
     <row r="3">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.1359515009029</v>
+        <v>210.1919928775891</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.8381999976151</v>
+        <v>287.5939576712534</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.1848700330131</v>
+        <v>260.1463939918484</v>
       </c>
       <c r="AD3" t="n">
-        <v>181135.9515009029</v>
+        <v>210191.9928775891</v>
       </c>
       <c r="AE3" t="n">
-        <v>247838.1999976151</v>
+        <v>287593.9576712534</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.518567478774027e-06</v>
+        <v>6.285664021825114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.206597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>224184.8700330131</v>
+        <v>260146.3939918483</v>
       </c>
     </row>
   </sheetData>
